--- a/link-models/Friis_noise_temp_calculators.xlsx
+++ b/link-models/Friis_noise_temp_calculators.xlsx
@@ -3,17 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86D1286-2F8C-4DE2-812E-D6E35892C5C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4891D00-B496-47F4-A4B1-81760148C2ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="2050" windowWidth="29040" windowHeight="15350" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="1220" windowWidth="29040" windowHeight="15350" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="General (diplexer design)" sheetId="9" r:id="rId1"/>
-    <sheet name="King (diplexer design)" sheetId="10" r:id="rId2"/>
-    <sheet name="SME (diplexer design)" sheetId="11" r:id="rId3"/>
-    <sheet name="General (original design)" sheetId="8" r:id="rId4"/>
-    <sheet name="King (original design)" sheetId="7" r:id="rId5"/>
-    <sheet name="Subtotal" sheetId="6" r:id="rId6"/>
+    <sheet name="General" sheetId="9" r:id="rId1"/>
+    <sheet name="SME" sheetId="11" r:id="rId2"/>
+    <sheet name="King" sheetId="10" r:id="rId3"/>
+    <sheet name="Subtotal" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
   <si>
     <t>Device</t>
   </si>
@@ -161,9 +159,6 @@
   </si>
   <si>
     <t>F (totals)</t>
-  </si>
-  <si>
-    <t>Splitter - QCN-19+</t>
   </si>
   <si>
     <t>LNA - TQP3M9036</t>
@@ -380,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,15 +503,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,7 +808,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5"/>
     </row>
@@ -894,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="11">
@@ -938,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="11">
@@ -982,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="11">
@@ -1026,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="11">
@@ -1070,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="11">
@@ -1114,7 +1100,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="11">
@@ -1158,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="11">
@@ -1202,7 +1188,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="11">
@@ -1246,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="11">
@@ -1290,7 +1276,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="11">
@@ -1334,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="11">
@@ -1378,7 +1364,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="46"/>
       <c r="D21" s="12"/>
@@ -1451,6 +1437,534 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C6E41B-C429-4741-B46E-D3B289A55785}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C4" s="21">
+        <v>290</v>
+      </c>
+      <c r="D4" s="21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="22">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="22">
+        <v>-0.35299999999999998</v>
+      </c>
+      <c r="E10" s="23">
+        <f>IF(D10,10^(D10/10), "")</f>
+        <v>0.92193435745155949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="22">
+        <v>-0.85</v>
+      </c>
+      <c r="E11" s="23">
+        <f>IF(D11,10^(D11/10), "")</f>
+        <v>0.82224264994707108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="23">
+        <f>PRODUCT(E10:E11)</f>
+        <v>0.75805374914822055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="23">
+        <f>D7*E12+D4*(1-E12)</f>
+        <v>178.71140013628474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="11">
+        <v>17</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14">
+        <f>IF(D16,10^(D16/10), "")</f>
+        <v>50.118723362727238</v>
+      </c>
+      <c r="H16" s="14">
+        <f>IF(E16,10^(E16/10), "")</f>
+        <v>1.1066237839776663</v>
+      </c>
+      <c r="I16" s="14">
+        <f>IF(E16,$C$4*(H16-1), "")</f>
+        <v>30.920897353523213</v>
+      </c>
+      <c r="J16" s="14">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15">
+        <f>IF(E16,I16/J16, "")</f>
+        <v>30.920897353523213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>2</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="11">
+        <v>-0.7</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14">
+        <f t="shared" ref="G17:H25" si="0">IF(D17,10^(D17/10), "")</f>
+        <v>0.85113803820237643</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="0"/>
+        <v>1.1748975549395295</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" ref="I17:I25" si="1">IF(E17,$C$4*(H17-1), "")</f>
+        <v>50.720290932463563</v>
+      </c>
+      <c r="J17" s="14">
+        <f>IF(E17,J16*G16, "")</f>
+        <v>50.118723362727238</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" ref="K17:K25" si="2">IF(E17,I17/J17, "")</f>
+        <v>1.012002851018023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>3</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="11">
+        <v>-1.6</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14">
+        <f t="shared" si="0"/>
+        <v>0.69183097091893653</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>1.4454397707459274</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="1"/>
+        <v>129.17753351631896</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" ref="J18:J25" si="3">IF(E18,J17*G17, "")</f>
+        <v>42.657951880159274</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="2"/>
+        <v>3.0282169636090988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>4</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="11">
+        <v>17</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14">
+        <f t="shared" si="0"/>
+        <v>50.118723362727238</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="0"/>
+        <v>1.1066237839776663</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="1"/>
+        <v>30.920897353523213</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="3"/>
+        <v>29.512092266663863</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0477365370821472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>5</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="11">
+        <v>-1.6</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14">
+        <f t="shared" si="0"/>
+        <v>0.69183097091893653</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>1.4454397707459274</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="1"/>
+        <v>129.17753351631896</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="3"/>
+        <v>1479.108388168208</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="2"/>
+        <v>8.7334731213510333E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>6</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="11">
+        <v>-2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14">
+        <f t="shared" si="0"/>
+        <v>0.63095734448019325</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="0"/>
+        <v>1.5848931924611136</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>169.61902581372294</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="3"/>
+        <v>1023.2929922807546</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="2"/>
+        <v>0.16575802540743445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>7</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="11">
+        <v>-6.5</v>
+      </c>
+      <c r="E22" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14">
+        <f t="shared" si="0"/>
+        <v>0.22387211385683392</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="0"/>
+        <v>4.4668359215096318</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>1005.3824172377932</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="3"/>
+        <v>645.65422903465583</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5571529961802957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>8</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="11">
+        <v>-2</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14">
+        <f t="shared" si="0"/>
+        <v>0.63095734448019325</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="0"/>
+        <v>1.5848931924611136</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="1"/>
+        <v>169.61902581372294</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="3"/>
+        <v>144.54397707459279</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="2"/>
+        <v>1.1734769531503206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>9</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="11">
+        <v>-1.7</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14">
+        <f t="shared" si="0"/>
+        <v>0.67608297539198181</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="0"/>
+        <v>1.4791083881682074</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="1"/>
+        <v>138.94143256878016</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="3"/>
+        <v>91.201083935591001</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5234625135256601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
+        <v>10</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12">
+        <v>6</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="0"/>
+        <v>3.9810717055349727</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="1"/>
+        <v>864.51079460514211</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="3"/>
+        <v>61.659500186148236</v>
+      </c>
+      <c r="K25" s="18">
+        <f t="shared" si="2"/>
+        <v>14.02072335966411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J28" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="48">
+        <f>SUM(K16:K25)</f>
+        <v>54.5367622843738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J30" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="29">
+        <f>E13+K28</f>
+        <v>233.24816242065853</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7773920D-8FEE-44E0-BD88-8F71D5917A8F}">
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -1596,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="11">
@@ -1631,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="11">
@@ -1667,7 +2181,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="11">
@@ -1703,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="11">
@@ -1739,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="11">
@@ -1775,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="11">
@@ -1811,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="11">
@@ -1847,7 +2361,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="11">
@@ -1883,7 +2397,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="44"/>
       <c r="D24" s="11">
@@ -1919,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="12"/>
@@ -1964,534 +2478,6 @@
       <c r="K30" s="29">
         <f>E13+K28</f>
         <v>230.82869991214071</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C6E41B-C429-4741-B46E-D3B289A55785}">
-  <dimension ref="A1:K30"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.81640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C4" s="21">
-        <v>290</v>
-      </c>
-      <c r="D4" s="21">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="22">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="22">
-        <v>-0.35299999999999998</v>
-      </c>
-      <c r="E10" s="23">
-        <f>IF(D10,10^(D10/10), "")</f>
-        <v>0.92193435745155949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="22">
-        <v>-0.85</v>
-      </c>
-      <c r="E11" s="23">
-        <f>IF(D11,10^(D11/10), "")</f>
-        <v>0.82224264994707108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="23">
-        <f>PRODUCT(E10:E11)</f>
-        <v>0.75805374914822055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="23">
-        <f>D7*E12+D4*(1-E12)</f>
-        <v>178.71140013628474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>1</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="11">
-        <v>17</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0.44</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14">
-        <f>IF(D16,10^(D16/10), "")</f>
-        <v>50.118723362727238</v>
-      </c>
-      <c r="H16" s="14">
-        <f>IF(E16,10^(E16/10), "")</f>
-        <v>1.1066237839776663</v>
-      </c>
-      <c r="I16" s="14">
-        <f>IF(E16,$C$4*(H16-1), "")</f>
-        <v>30.920897353523213</v>
-      </c>
-      <c r="J16" s="14">
-        <v>1</v>
-      </c>
-      <c r="K16" s="15">
-        <f>IF(E16,I16/J16, "")</f>
-        <v>30.920897353523213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="11">
-        <v>-0.7</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14">
-        <f t="shared" ref="G17:H25" si="0">IF(D17,10^(D17/10), "")</f>
-        <v>0.85113803820237643</v>
-      </c>
-      <c r="H17" s="14">
-        <f t="shared" si="0"/>
-        <v>1.1748975549395295</v>
-      </c>
-      <c r="I17" s="14">
-        <f t="shared" ref="I17:I25" si="1">IF(E17,$C$4*(H17-1), "")</f>
-        <v>50.720290932463563</v>
-      </c>
-      <c r="J17" s="14">
-        <f>IF(E17,J16*G16, "")</f>
-        <v>50.118723362727238</v>
-      </c>
-      <c r="K17" s="15">
-        <f t="shared" ref="K17:K25" si="2">IF(E17,I17/J17, "")</f>
-        <v>1.012002851018023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>3</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="11">
-        <v>-1.6</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14">
-        <f t="shared" si="0"/>
-        <v>0.69183097091893653</v>
-      </c>
-      <c r="H18" s="14">
-        <f t="shared" si="0"/>
-        <v>1.4454397707459274</v>
-      </c>
-      <c r="I18" s="14">
-        <f t="shared" si="1"/>
-        <v>129.17753351631896</v>
-      </c>
-      <c r="J18" s="14">
-        <f t="shared" ref="J18:J25" si="3">IF(E18,J17*G17, "")</f>
-        <v>42.657951880159274</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="2"/>
-        <v>3.0282169636090988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>4</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="11">
-        <v>17</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0.44</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14">
-        <f t="shared" si="0"/>
-        <v>50.118723362727238</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="0"/>
-        <v>1.1066237839776663</v>
-      </c>
-      <c r="I19" s="14">
-        <f t="shared" si="1"/>
-        <v>30.920897353523213</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="3"/>
-        <v>29.512092266663863</v>
-      </c>
-      <c r="K19" s="15">
-        <f t="shared" si="2"/>
-        <v>1.0477365370821472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>5</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="11">
-        <v>-1.6</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14">
-        <f t="shared" si="0"/>
-        <v>0.69183097091893653</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="0"/>
-        <v>1.4454397707459274</v>
-      </c>
-      <c r="I20" s="14">
-        <f t="shared" si="1"/>
-        <v>129.17753351631896</v>
-      </c>
-      <c r="J20" s="14">
-        <f t="shared" si="3"/>
-        <v>1479.108388168208</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" si="2"/>
-        <v>8.7334731213510333E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>6</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="11">
-        <v>-2</v>
-      </c>
-      <c r="E21" s="11">
-        <v>2</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14">
-        <f t="shared" si="0"/>
-        <v>0.63095734448019325</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="0"/>
-        <v>1.5848931924611136</v>
-      </c>
-      <c r="I21" s="14">
-        <f t="shared" si="1"/>
-        <v>169.61902581372294</v>
-      </c>
-      <c r="J21" s="14">
-        <f t="shared" si="3"/>
-        <v>1023.2929922807546</v>
-      </c>
-      <c r="K21" s="15">
-        <f t="shared" si="2"/>
-        <v>0.16575802540743445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>7</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="11">
-        <v>-6.5</v>
-      </c>
-      <c r="E22" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14">
-        <f t="shared" si="0"/>
-        <v>0.22387211385683392</v>
-      </c>
-      <c r="H22" s="14">
-        <f t="shared" si="0"/>
-        <v>4.4668359215096318</v>
-      </c>
-      <c r="I22" s="14">
-        <f t="shared" si="1"/>
-        <v>1005.3824172377932</v>
-      </c>
-      <c r="J22" s="14">
-        <f t="shared" si="3"/>
-        <v>645.65422903465583</v>
-      </c>
-      <c r="K22" s="15">
-        <f t="shared" si="2"/>
-        <v>1.5571529961802957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>8</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="11">
-        <v>-2</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14">
-        <f t="shared" si="0"/>
-        <v>0.63095734448019325</v>
-      </c>
-      <c r="H23" s="14">
-        <f t="shared" si="0"/>
-        <v>1.5848931924611136</v>
-      </c>
-      <c r="I23" s="14">
-        <f t="shared" si="1"/>
-        <v>169.61902581372294</v>
-      </c>
-      <c r="J23" s="14">
-        <f t="shared" si="3"/>
-        <v>144.54397707459279</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" si="2"/>
-        <v>1.1734769531503206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>9</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="11">
-        <v>-1.7</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14">
-        <f t="shared" si="0"/>
-        <v>0.67608297539198181</v>
-      </c>
-      <c r="H24" s="14">
-        <f t="shared" si="0"/>
-        <v>1.4791083881682074</v>
-      </c>
-      <c r="I24" s="14">
-        <f t="shared" si="1"/>
-        <v>138.94143256878016</v>
-      </c>
-      <c r="J24" s="14">
-        <f t="shared" si="3"/>
-        <v>91.201083935591001</v>
-      </c>
-      <c r="K24" s="15">
-        <f t="shared" si="2"/>
-        <v>1.5234625135256601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7">
-        <v>10</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12">
-        <v>6</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H25" s="17">
-        <f t="shared" si="0"/>
-        <v>3.9810717055349727</v>
-      </c>
-      <c r="I25" s="17">
-        <f t="shared" si="1"/>
-        <v>864.51079460514211</v>
-      </c>
-      <c r="J25" s="17">
-        <f t="shared" si="3"/>
-        <v>61.659500186148236</v>
-      </c>
-      <c r="K25" s="18">
-        <f t="shared" si="2"/>
-        <v>14.02072335966411</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J28" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="48">
-        <f>SUM(K16:K25)</f>
-        <v>54.5367622843738</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J30" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="29">
-        <f>E13+K28</f>
-        <v>233.24816242065853</v>
       </c>
     </row>
   </sheetData>
@@ -2501,1182 +2487,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1E583F-F4DC-4608-9280-E301D68A7E3E}">
-  <dimension ref="A1:M26"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.81640625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="14.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1796875" customWidth="1"/>
-    <col min="11" max="11" width="20.26953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C4" s="21">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="22">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="11">
-        <v>-0.35299999999999998</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="19">
-        <f>IF(D10,10^(D10/10), "")</f>
-        <v>0.92193435745155949</v>
-      </c>
-      <c r="H10" s="19">
-        <f>IF(E10,10^(E10/10), "")</f>
-        <v>1.0846759228761493</v>
-      </c>
-      <c r="I10" s="24">
-        <f>IF(E10,1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="14">
-        <f t="shared" ref="J10:J21" si="0">IF(E10,$C$4*(H10-1), "")</f>
-        <v>24.556017634083307</v>
-      </c>
-      <c r="K10" s="14">
-        <f t="shared" ref="K10:K21" si="1">IF(E10,J10/I10, "")</f>
-        <v>24.556017634083307</v>
-      </c>
-      <c r="L10" s="19">
-        <f>IF(E10,(H10-1)/I10, "")</f>
-        <v>8.4675922876149334E-2</v>
-      </c>
-      <c r="M10" s="25">
-        <f>IF(E10,L10+1, "")</f>
-        <v>1.0846759228761493</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>2</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="11">
-        <v>-0.85</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="19">
-        <f t="shared" ref="G11:H21" si="2">IF(D11,10^(D11/10), "")</f>
-        <v>0.82224264994707108</v>
-      </c>
-      <c r="H11" s="19">
-        <f t="shared" si="2"/>
-        <v>1.2161860006463681</v>
-      </c>
-      <c r="I11" s="19">
-        <f t="shared" ref="I11:I21" si="3">IF(E11,I10*G10, "")</f>
-        <v>0.92193435745155949</v>
-      </c>
-      <c r="J11" s="14">
-        <f t="shared" si="0"/>
-        <v>62.693940187446735</v>
-      </c>
-      <c r="K11" s="14">
-        <f t="shared" si="1"/>
-        <v>68.002607431560889</v>
-      </c>
-      <c r="L11" s="19">
-        <f t="shared" ref="L11:L21" si="4">IF(E11,(H11-1)/I11, "")</f>
-        <v>0.23449174976400308</v>
-      </c>
-      <c r="M11" s="26">
-        <f>IF(E11, M10+L11, "")</f>
-        <v>1.3191676726401524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>3</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="11">
-        <v>17</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.44</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="19">
-        <f t="shared" si="2"/>
-        <v>50.118723362727238</v>
-      </c>
-      <c r="H12" s="19">
-        <f t="shared" si="2"/>
-        <v>1.1066237839776663</v>
-      </c>
-      <c r="I12" s="19">
-        <f t="shared" si="3"/>
-        <v>0.75805374914822055</v>
-      </c>
-      <c r="J12" s="14">
-        <f t="shared" si="0"/>
-        <v>30.920897353523213</v>
-      </c>
-      <c r="K12" s="14">
-        <f t="shared" si="1"/>
-        <v>40.789848197792267</v>
-      </c>
-      <c r="L12" s="19">
-        <f t="shared" si="4"/>
-        <v>0.14065464895790436</v>
-      </c>
-      <c r="M12" s="26">
-        <f t="shared" ref="M12:M21" si="5">IF(E12, M11+L12, "")</f>
-        <v>1.4598223215980568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>4</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="11">
-        <v>-3.25</v>
-      </c>
-      <c r="E13" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="19">
-        <f t="shared" si="2"/>
-        <v>0.47315125896148047</v>
-      </c>
-      <c r="H13" s="19">
-        <f t="shared" si="2"/>
-        <v>2.1134890398366468</v>
-      </c>
-      <c r="I13" s="19">
-        <f t="shared" si="3"/>
-        <v>37.992686147637897</v>
-      </c>
-      <c r="J13" s="14">
-        <f t="shared" si="0"/>
-        <v>322.9118215526276</v>
-      </c>
-      <c r="K13" s="14">
-        <f t="shared" si="1"/>
-        <v>8.4993153760649225</v>
-      </c>
-      <c r="L13" s="19">
-        <f t="shared" si="4"/>
-        <v>2.9307984055396287E-2</v>
-      </c>
-      <c r="M13" s="26">
-        <f t="shared" si="5"/>
-        <v>1.4891303056534531</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>5</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="11">
-        <v>-1.6</v>
-      </c>
-      <c r="E14" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="19">
-        <f t="shared" si="2"/>
-        <v>0.69183097091893653</v>
-      </c>
-      <c r="H14" s="19">
-        <f t="shared" si="2"/>
-        <v>1.4454397707459274</v>
-      </c>
-      <c r="I14" s="19">
-        <f t="shared" si="3"/>
-        <v>17.97628728208327</v>
-      </c>
-      <c r="J14" s="14">
-        <f t="shared" si="0"/>
-        <v>129.17753351631896</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="shared" si="1"/>
-        <v>7.1859962788349803</v>
-      </c>
-      <c r="L14" s="19">
-        <f t="shared" si="4"/>
-        <v>2.477929751322407E-2</v>
-      </c>
-      <c r="M14" s="26">
-        <f t="shared" si="5"/>
-        <v>1.5139096031666772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>6</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="11">
-        <v>17</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.44</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="19">
-        <f t="shared" si="2"/>
-        <v>50.118723362727238</v>
-      </c>
-      <c r="H15" s="19">
-        <f t="shared" si="2"/>
-        <v>1.1066237839776663</v>
-      </c>
-      <c r="I15" s="19">
-        <f t="shared" si="3"/>
-        <v>12.436552283881399</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="0"/>
-        <v>30.920897353523213</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" si="1"/>
-        <v>2.4862917509379794</v>
-      </c>
-      <c r="L15" s="19">
-        <f t="shared" si="4"/>
-        <v>8.5734198308206194E-3</v>
-      </c>
-      <c r="M15" s="26">
-        <f t="shared" si="5"/>
-        <v>1.5224830229974979</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>7</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="11">
-        <v>-1.6</v>
-      </c>
-      <c r="E16" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="19">
-        <f t="shared" si="2"/>
-        <v>0.69183097091893653</v>
-      </c>
-      <c r="H16" s="19">
-        <f t="shared" si="2"/>
-        <v>1.4454397707459274</v>
-      </c>
-      <c r="I16" s="19">
-        <f t="shared" si="3"/>
-        <v>623.30412350194547</v>
-      </c>
-      <c r="J16" s="14">
-        <f t="shared" si="0"/>
-        <v>129.17753351631896</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="shared" si="1"/>
-        <v>0.2072463964951064</v>
-      </c>
-      <c r="L16" s="19">
-        <f t="shared" si="4"/>
-        <v>7.1464274653484971E-4</v>
-      </c>
-      <c r="M16" s="26">
-        <f t="shared" si="5"/>
-        <v>1.5231976657440327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>8</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="11">
-        <v>-2</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="19">
-        <f t="shared" si="2"/>
-        <v>0.63095734448019325</v>
-      </c>
-      <c r="H17" s="19">
-        <f t="shared" si="2"/>
-        <v>1.5848931924611136</v>
-      </c>
-      <c r="I17" s="19">
-        <f t="shared" si="3"/>
-        <v>431.22109694012767</v>
-      </c>
-      <c r="J17" s="14">
-        <f t="shared" si="0"/>
-        <v>169.61902581372294</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="shared" si="1"/>
-        <v>0.39334584281082491</v>
-      </c>
-      <c r="L17" s="19">
-        <f t="shared" si="4"/>
-        <v>1.356364975209741E-3</v>
-      </c>
-      <c r="M17" s="26">
-        <f t="shared" si="5"/>
-        <v>1.5245540307192424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>9</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="11">
-        <v>-6.5</v>
-      </c>
-      <c r="E18" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="19">
-        <f t="shared" si="2"/>
-        <v>0.22387211385683392</v>
-      </c>
-      <c r="H18" s="19">
-        <f t="shared" si="2"/>
-        <v>4.4668359215096318</v>
-      </c>
-      <c r="I18" s="19">
-        <f t="shared" si="3"/>
-        <v>272.08211820917893</v>
-      </c>
-      <c r="J18" s="14">
-        <f t="shared" si="0"/>
-        <v>1005.3824172377932</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="1"/>
-        <v>3.6951433039963586</v>
-      </c>
-      <c r="L18" s="19">
-        <f t="shared" si="4"/>
-        <v>1.274187346205641E-2</v>
-      </c>
-      <c r="M18" s="26">
-        <f t="shared" si="5"/>
-        <v>1.5372959041812988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>10</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="11">
-        <v>-2</v>
-      </c>
-      <c r="E19" s="11">
-        <v>2</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="19">
-        <f t="shared" si="2"/>
-        <v>0.63095734448019325</v>
-      </c>
-      <c r="H19" s="19">
-        <f t="shared" si="2"/>
-        <v>1.5848931924611136</v>
-      </c>
-      <c r="I19" s="19">
-        <f t="shared" si="3"/>
-        <v>60.91159894613385</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="0"/>
-        <v>169.61902581372294</v>
-      </c>
-      <c r="K19" s="14">
-        <f t="shared" si="1"/>
-        <v>2.7846753122294929</v>
-      </c>
-      <c r="L19" s="19">
-        <f t="shared" si="4"/>
-        <v>9.6023286628603207E-3</v>
-      </c>
-      <c r="M19" s="26">
-        <f t="shared" si="5"/>
-        <v>1.5468982328441592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>11</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="11">
-        <v>-1.7</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="19">
-        <f t="shared" si="2"/>
-        <v>0.67608297539198181</v>
-      </c>
-      <c r="H20" s="19">
-        <f t="shared" si="2"/>
-        <v>1.4791083881682074</v>
-      </c>
-      <c r="I20" s="19">
-        <f t="shared" si="3"/>
-        <v>38.432620719095155</v>
-      </c>
-      <c r="J20" s="14">
-        <f t="shared" si="0"/>
-        <v>138.94143256878016</v>
-      </c>
-      <c r="K20" s="14">
-        <f t="shared" si="1"/>
-        <v>3.6151953722933978</v>
-      </c>
-      <c r="L20" s="19">
-        <f t="shared" si="4"/>
-        <v>1.246619093894275E-2</v>
-      </c>
-      <c r="M20" s="26">
-        <f t="shared" si="5"/>
-        <v>1.5593644237831019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
-        <v>12</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12">
-        <v>6</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H21" s="20">
-        <f t="shared" si="2"/>
-        <v>3.9810717055349727</v>
-      </c>
-      <c r="I21" s="20">
-        <f t="shared" si="3"/>
-        <v>25.98364056787738</v>
-      </c>
-      <c r="J21" s="17">
-        <f t="shared" si="0"/>
-        <v>864.51079460514211</v>
-      </c>
-      <c r="K21" s="17">
-        <f t="shared" si="1"/>
-        <v>33.27134980745943</v>
-      </c>
-      <c r="L21" s="20">
-        <f t="shared" si="4"/>
-        <v>0.11472879243951527</v>
-      </c>
-      <c r="M21" s="27">
-        <f t="shared" si="5"/>
-        <v>1.6740932162226172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J24" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="48">
-        <f>SUM(K10:K21)</f>
-        <v>195.48703270455889</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J26" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="29">
-        <f>D7+K24</f>
-        <v>335.48703270455889</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260680CF-E5A9-4D59-B6EE-8D521533AC33}">
-  <dimension ref="A1:K30"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.81640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C4" s="21">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="22">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="22">
-        <v>-0.35299999999999998</v>
-      </c>
-      <c r="E10" s="23">
-        <f>IF(D10,10^(D10/10), "")</f>
-        <v>0.92193435745155949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="22">
-        <v>-0.85</v>
-      </c>
-      <c r="E11" s="23">
-        <f>IF(D11,10^(D11/10), "")</f>
-        <v>0.82224264994707108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="23">
-        <f>PRODUCT(E10:E11)</f>
-        <v>0.75805374914822055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="23">
-        <f>D7*E12+C4*(1-E12)</f>
-        <v>176.29193762776691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>1</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="11">
-        <v>17</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0.44</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14">
-        <f>IF(D16,10^(D16/10), "")</f>
-        <v>50.118723362727238</v>
-      </c>
-      <c r="H16" s="14">
-        <f>IF(E16,10^(E16/10), "")</f>
-        <v>1.1066237839776663</v>
-      </c>
-      <c r="I16" s="14">
-        <f>IF(E16,$C$4*(H16-1), "")</f>
-        <v>30.920897353523213</v>
-      </c>
-      <c r="J16" s="14">
-        <v>1</v>
-      </c>
-      <c r="K16" s="15">
-        <f>IF(E16,I16/J16, "")</f>
-        <v>30.920897353523213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
-        <v>2</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="11">
-        <v>-3.25</v>
-      </c>
-      <c r="E17" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14">
-        <f t="shared" ref="G17:H25" si="0">IF(D17,10^(D17/10), "")</f>
-        <v>0.47315125896148047</v>
-      </c>
-      <c r="H17" s="14">
-        <f t="shared" si="0"/>
-        <v>2.1134890398366468</v>
-      </c>
-      <c r="I17" s="14">
-        <f t="shared" ref="I17:I25" si="1">IF(E17,$C$4*(H17-1), "")</f>
-        <v>322.9118215526276</v>
-      </c>
-      <c r="J17" s="14">
-        <f>IF(E17,J16*G16, "")</f>
-        <v>50.118723362727238</v>
-      </c>
-      <c r="K17" s="15">
-        <f t="shared" ref="K17:K25" si="2">IF(E17,I17/J17, "")</f>
-        <v>6.4429378860191342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>3</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="11">
-        <v>-1.6</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14">
-        <f t="shared" si="0"/>
-        <v>0.69183097091893653</v>
-      </c>
-      <c r="H18" s="14">
-        <f t="shared" si="0"/>
-        <v>1.4454397707459274</v>
-      </c>
-      <c r="I18" s="14">
-        <f t="shared" si="1"/>
-        <v>129.17753351631896</v>
-      </c>
-      <c r="J18" s="14">
-        <f t="shared" ref="J18:J25" si="3">IF(E18,J17*G17, "")</f>
-        <v>23.713737056616555</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="2"/>
-        <v>5.4473714205360189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>4</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="11">
-        <v>17</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0.44</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14">
-        <f t="shared" si="0"/>
-        <v>50.118723362727238</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="0"/>
-        <v>1.1066237839776663</v>
-      </c>
-      <c r="I19" s="14">
-        <f t="shared" si="1"/>
-        <v>30.920897353523213</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="3"/>
-        <v>16.405897731995395</v>
-      </c>
-      <c r="K19" s="15">
-        <f t="shared" si="2"/>
-        <v>1.8847427832748294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>5</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="11">
-        <v>-1.6</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14">
-        <f t="shared" si="0"/>
-        <v>0.69183097091893653</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="0"/>
-        <v>1.4454397707459274</v>
-      </c>
-      <c r="I20" s="14">
-        <f t="shared" si="1"/>
-        <v>129.17753351631896</v>
-      </c>
-      <c r="J20" s="14">
-        <f t="shared" si="3"/>
-        <v>822.24264994707141</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" si="2"/>
-        <v>0.15710390786057407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>6</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="11">
-        <v>-2</v>
-      </c>
-      <c r="E21" s="11">
-        <v>2</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14">
-        <f t="shared" si="0"/>
-        <v>0.63095734448019325</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="0"/>
-        <v>1.5848931924611136</v>
-      </c>
-      <c r="I21" s="14">
-        <f t="shared" si="1"/>
-        <v>169.61902581372294</v>
-      </c>
-      <c r="J21" s="14">
-        <f t="shared" si="3"/>
-        <v>568.8529308438417</v>
-      </c>
-      <c r="K21" s="15">
-        <f t="shared" si="2"/>
-        <v>0.29817729085461248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>7</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="11">
-        <v>-6.5</v>
-      </c>
-      <c r="E22" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14">
-        <f t="shared" si="0"/>
-        <v>0.22387211385683392</v>
-      </c>
-      <c r="H22" s="14">
-        <f t="shared" si="0"/>
-        <v>4.4668359215096318</v>
-      </c>
-      <c r="I22" s="14">
-        <f t="shared" si="1"/>
-        <v>1005.3824172377932</v>
-      </c>
-      <c r="J22" s="14">
-        <f t="shared" si="3"/>
-        <v>358.92193464500536</v>
-      </c>
-      <c r="K22" s="15">
-        <f t="shared" si="2"/>
-        <v>2.8011172352343827</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>8</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="11">
-        <v>-2</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14">
-        <f t="shared" si="0"/>
-        <v>0.63095734448019325</v>
-      </c>
-      <c r="H23" s="14">
-        <f t="shared" si="0"/>
-        <v>1.5848931924611136</v>
-      </c>
-      <c r="I23" s="14">
-        <f t="shared" si="1"/>
-        <v>169.61902581372294</v>
-      </c>
-      <c r="J23" s="14">
-        <f t="shared" si="3"/>
-        <v>80.352612218561745</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" si="2"/>
-        <v>2.1109335605960591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>9</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="11">
-        <v>-1.7</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14">
-        <f t="shared" si="0"/>
-        <v>0.67608297539198181</v>
-      </c>
-      <c r="H24" s="14">
-        <f t="shared" si="0"/>
-        <v>1.4791083881682074</v>
-      </c>
-      <c r="I24" s="14">
-        <f t="shared" si="1"/>
-        <v>138.94143256878016</v>
-      </c>
-      <c r="J24" s="14">
-        <f t="shared" si="3"/>
-        <v>50.69907082747045</v>
-      </c>
-      <c r="K24" s="15">
-        <f t="shared" si="2"/>
-        <v>2.7405124058703074</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7">
-        <v>10</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12">
-        <v>6</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H25" s="17">
-        <f t="shared" si="0"/>
-        <v>3.9810717055349727</v>
-      </c>
-      <c r="I25" s="17">
-        <f t="shared" si="1"/>
-        <v>864.51079460514211</v>
-      </c>
-      <c r="J25" s="17">
-        <f t="shared" si="3"/>
-        <v>34.276778654645049</v>
-      </c>
-      <c r="K25" s="18">
-        <f t="shared" si="2"/>
-        <v>25.221471460766548</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J28" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="51">
-        <f>SUM(K16:K25)</f>
-        <v>78.025265304535679</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J30" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="29">
-        <f>E13+K28</f>
-        <v>254.31720293230259</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF8D06D-3308-4295-B0C4-8205C7BDA653}">
   <dimension ref="A1:M17"/>
   <sheetViews>
@@ -3702,7 +2512,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3747,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="11">
@@ -3791,7 +2601,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="11">
@@ -3835,7 +2645,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="11">
@@ -3879,7 +2689,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="11">
@@ -3923,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="11">
@@ -3967,7 +2777,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="11">
@@ -4011,7 +2821,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="11">
@@ -4055,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="11">
@@ -4099,7 +2909,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="11"/>
